--- a/Code/Results/Cases/Case_1_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_126/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.210764264157589</v>
+        <v>7.883905403082101</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.958244140824082</v>
+        <v>4.290511741693083</v>
       </c>
       <c r="E2">
-        <v>6.653554060573671</v>
+        <v>11.3007674341967</v>
       </c>
       <c r="F2">
-        <v>65.38598425162516</v>
+        <v>61.57371226796182</v>
       </c>
       <c r="G2">
-        <v>2.123186037860098</v>
+        <v>3.773025587845178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.416588466925297</v>
+        <v>10.86853030175425</v>
       </c>
       <c r="K2">
-        <v>17.64770815982399</v>
+        <v>19.6138081745967</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.856569522098536</v>
+        <v>7.81824631013845</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.779130268801428</v>
+        <v>4.31461079268039</v>
       </c>
       <c r="E3">
-        <v>6.47724705972534</v>
+        <v>11.33702710797916</v>
       </c>
       <c r="F3">
-        <v>62.15253202427222</v>
+        <v>60.73746549001615</v>
       </c>
       <c r="G3">
-        <v>2.137751907682293</v>
+        <v>3.777791817778156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.251500466258241</v>
+        <v>10.86791825438286</v>
       </c>
       <c r="K3">
-        <v>16.30808687769971</v>
+        <v>19.53402080559271</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.63453589224657</v>
+        <v>7.779604542265804</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.667303713694991</v>
+        <v>4.331093360647954</v>
       </c>
       <c r="E4">
-        <v>6.376142420673025</v>
+        <v>11.36253262279055</v>
       </c>
       <c r="F4">
-        <v>60.14045150455274</v>
+        <v>60.22688459967065</v>
       </c>
       <c r="G4">
-        <v>2.146829090376116</v>
+        <v>3.780864749783362</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.154290482431756</v>
+        <v>10.86936348003161</v>
       </c>
       <c r="K4">
-        <v>15.49609595638199</v>
+        <v>19.49333548509704</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.543015860257388</v>
+        <v>7.764294445631796</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.621226188945499</v>
+        <v>4.338229900269322</v>
       </c>
       <c r="E5">
-        <v>6.336713981564007</v>
+        <v>11.37373909617119</v>
       </c>
       <c r="F5">
-        <v>59.31408042550118</v>
+        <v>60.0197166275703</v>
       </c>
       <c r="G5">
-        <v>2.150567202908</v>
+        <v>3.782153984641724</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.115693443003549</v>
+        <v>10.87040983114154</v>
       </c>
       <c r="K5">
-        <v>15.22831347875323</v>
+        <v>19.47885614607904</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.527759765632986</v>
+        <v>7.761779045200607</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.613543324549198</v>
+        <v>4.339440149526292</v>
       </c>
       <c r="E6">
-        <v>6.330273268153769</v>
+        <v>11.37564893779535</v>
       </c>
       <c r="F6">
-        <v>59.17648576398384</v>
+        <v>59.98537581643444</v>
       </c>
       <c r="G6">
-        <v>2.151190423764143</v>
+        <v>3.782370300043767</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.109345101455326</v>
+        <v>10.8706111854631</v>
       </c>
       <c r="K6">
-        <v>15.1837579054494</v>
+        <v>19.47657899433737</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.633305674028205</v>
+        <v>7.779396276065405</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.666684400270262</v>
+        <v>4.33118791234387</v>
       </c>
       <c r="E7">
-        <v>6.375603530004866</v>
+        <v>11.36268046963567</v>
       </c>
       <c r="F7">
-        <v>60.12933229759945</v>
+        <v>60.22408679605046</v>
       </c>
       <c r="G7">
-        <v>2.146879338781857</v>
+        <v>3.780881986864636</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.153765866308093</v>
+        <v>10.86937574022527</v>
       </c>
       <c r="K7">
-        <v>15.49249076786665</v>
+        <v>19.49313169450067</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.089640790065614</v>
+        <v>7.860928722762525</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.896841763488068</v>
+        <v>4.298468763338328</v>
       </c>
       <c r="E8">
-        <v>6.591263753215791</v>
+        <v>11.31259547917858</v>
       </c>
       <c r="F8">
-        <v>64.27674954197843</v>
+        <v>61.2848821413396</v>
       </c>
       <c r="G8">
-        <v>2.12818408577257</v>
+        <v>3.774638688180543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.358785566348801</v>
+        <v>10.86794105715882</v>
       </c>
       <c r="K8">
-        <v>17.19244897507636</v>
+        <v>19.5845822192784</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.944798836741376</v>
+        <v>8.033349723319196</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.335873248443332</v>
+        <v>4.247865558941909</v>
       </c>
       <c r="E9">
-        <v>7.072304512200544</v>
+        <v>11.24020630400417</v>
       </c>
       <c r="F9">
-        <v>72.1961366213029</v>
+        <v>63.38022299410445</v>
       </c>
       <c r="G9">
-        <v>2.092301226024882</v>
+        <v>3.763550069247289</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.795379662281111</v>
+        <v>10.87959407218351</v>
       </c>
       <c r="K9">
-        <v>20.36678303118347</v>
+        <v>19.82910775699191</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.575226479466776</v>
+        <v>8.166634543117645</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.6550784660488</v>
+        <v>4.219205093494989</v>
       </c>
       <c r="E10">
-        <v>7.463966515649881</v>
+        <v>11.20290167530365</v>
       </c>
       <c r="F10">
-        <v>77.90006977482466</v>
+        <v>64.91857385724946</v>
       </c>
       <c r="G10">
-        <v>2.065952364081588</v>
+        <v>3.756096504948684</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.140151952712698</v>
+        <v>10.89699120380125</v>
       </c>
       <c r="K10">
-        <v>22.57186152575287</v>
+        <v>20.04732570314118</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.899060778568774</v>
+        <v>8.228473830207413</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.800781745849085</v>
+        <v>4.208070011951997</v>
       </c>
       <c r="E11">
-        <v>7.651429807946703</v>
+        <v>11.1894045901987</v>
       </c>
       <c r="F11">
-        <v>80.47914182652571</v>
+        <v>65.61600955841691</v>
       </c>
       <c r="G11">
-        <v>2.053841976962852</v>
+        <v>3.752853949026548</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.303149992749283</v>
+        <v>10.90682427161411</v>
       </c>
       <c r="K11">
-        <v>23.5540156350594</v>
+        <v>20.1546535408797</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.0196756123861</v>
+        <v>8.252044638229208</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.856156004110195</v>
+        <v>4.204131444670097</v>
       </c>
       <c r="E12">
-        <v>7.723872791191242</v>
+        <v>11.18479480865802</v>
       </c>
       <c r="F12">
-        <v>81.45469906592874</v>
+        <v>65.87959231030732</v>
       </c>
       <c r="G12">
-        <v>2.049225223417623</v>
+        <v>3.75164719877548</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.3658654300783</v>
+        <v>10.91082337974284</v>
       </c>
       <c r="K12">
-        <v>23.92360628802553</v>
+        <v>20.19642345629138</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.993787073209662</v>
+        <v>8.246961730784145</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.844218947748766</v>
+        <v>4.204967249105065</v>
       </c>
       <c r="E13">
-        <v>7.708203897778899</v>
+        <v>11.185765285766</v>
       </c>
       <c r="F13">
-        <v>81.24462052500959</v>
+        <v>65.82285104692809</v>
       </c>
       <c r="G13">
-        <v>2.050221127743105</v>
+        <v>3.751906156621228</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.352312431853681</v>
+        <v>10.90994985416152</v>
       </c>
       <c r="K13">
-        <v>23.84409960341051</v>
+        <v>20.18737795867806</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.909023644428418</v>
+        <v>8.230410051156692</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.805332585562612</v>
+        <v>4.207740385886302</v>
       </c>
       <c r="E14">
-        <v>7.657359765651959</v>
+        <v>11.18901528447867</v>
       </c>
       <c r="F14">
-        <v>80.5594150540188</v>
+        <v>65.63770612995395</v>
       </c>
       <c r="G14">
-        <v>2.053462854572505</v>
+        <v>3.752754246305697</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.308289044541263</v>
+        <v>10.90714776146949</v>
       </c>
       <c r="K14">
-        <v>23.58446437669793</v>
+        <v>20.15806757751207</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.85684415344409</v>
+        <v>8.220291078485385</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.781543835486923</v>
+        <v>4.20947535324092</v>
       </c>
       <c r="E15">
-        <v>7.626409877097605</v>
+        <v>11.1910713349164</v>
       </c>
       <c r="F15">
-        <v>80.13960759861163</v>
+        <v>65.52422638959078</v>
       </c>
       <c r="G15">
-        <v>2.055444066122808</v>
+        <v>3.753276473341274</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.281456226780037</v>
+        <v>10.90546726661317</v>
       </c>
       <c r="K15">
-        <v>23.42514946197904</v>
+        <v>20.1402599293062</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.553776153655351</v>
+        <v>8.162615788557558</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.645576749467741</v>
+        <v>4.219971464867269</v>
       </c>
       <c r="E16">
-        <v>7.451911631742163</v>
+        <v>11.20385379018622</v>
       </c>
       <c r="F16">
-        <v>77.73129744331138</v>
+        <v>64.87293161701598</v>
       </c>
       <c r="G16">
-        <v>2.066740254870852</v>
+        <v>3.756311380030065</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.129632003045394</v>
+        <v>10.8963871741494</v>
       </c>
       <c r="K16">
-        <v>22.50730927821435</v>
+        <v>20.04047110041065</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.373290582492395</v>
+        <v>8.127528915146911</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.562375373880706</v>
+        <v>4.22690098746333</v>
       </c>
       <c r="E17">
-        <v>7.347315829758649</v>
+        <v>11.21258630938217</v>
       </c>
       <c r="F17">
-        <v>76.25057808662189</v>
+        <v>64.47264713244924</v>
       </c>
       <c r="G17">
-        <v>2.073629817205221</v>
+        <v>3.758211015417078</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.038137063601489</v>
+        <v>10.89130810343775</v>
       </c>
       <c r="K17">
-        <v>21.93932416876289</v>
+        <v>19.98129637183966</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.2836763280825</v>
+        <v>8.107462725649714</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.514557652355465</v>
+        <v>4.231065493813367</v>
       </c>
       <c r="E18">
-        <v>7.288020899108706</v>
+        <v>11.21793581700892</v>
       </c>
       <c r="F18">
-        <v>75.39734039414195</v>
+        <v>64.24220177107503</v>
       </c>
       <c r="G18">
-        <v>2.077581727614685</v>
+        <v>3.75931758578063</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.986083529772727</v>
+        <v>10.88856742067127</v>
       </c>
       <c r="K18">
-        <v>21.61061465167625</v>
+        <v>19.94802130220065</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.253234343792498</v>
+        <v>8.100688991692204</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.498370348449505</v>
+        <v>4.23250610219804</v>
       </c>
       <c r="E19">
-        <v>7.268090349291921</v>
+        <v>11.21980313563648</v>
       </c>
       <c r="F19">
-        <v>75.10815004786483</v>
+        <v>64.16414603667955</v>
       </c>
       <c r="G19">
-        <v>2.078918280968405</v>
+        <v>3.759694652420174</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.968554550329504</v>
+        <v>10.8876705114609</v>
       </c>
       <c r="K19">
-        <v>21.49895371291576</v>
+        <v>19.93688650367047</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.389828550657874</v>
+        <v>8.131252230440561</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.571227574869813</v>
+        <v>4.226144787650405</v>
       </c>
       <c r="E20">
-        <v>7.358359885948929</v>
+        <v>11.21162288184038</v>
       </c>
       <c r="F20">
-        <v>76.40835810025354</v>
+        <v>64.51528139429853</v>
       </c>
       <c r="G20">
-        <v>2.072897613816254</v>
+        <v>3.758007353357313</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.047816985531654</v>
+        <v>10.89183008353232</v>
       </c>
       <c r="K20">
-        <v>21.99999163945496</v>
+        <v>19.98751711778981</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.933974608280344</v>
+        <v>8.235267671705097</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.816747875579656</v>
+        <v>4.206918267088202</v>
       </c>
       <c r="E21">
-        <v>7.672253304147309</v>
+        <v>11.18804706280731</v>
       </c>
       <c r="F21">
-        <v>80.76069454793365</v>
+        <v>65.69210323654036</v>
       </c>
       <c r="G21">
-        <v>2.052511632816548</v>
+        <v>3.752504569495654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.321191878067102</v>
+        <v>10.9079633301936</v>
       </c>
       <c r="K21">
-        <v>23.66078264792603</v>
+        <v>20.16664642126227</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.281403073135822</v>
+        <v>8.304133806380856</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.97845374434935</v>
+        <v>4.19597532411634</v>
       </c>
       <c r="E22">
-        <v>7.899019689334702</v>
+        <v>11.17556142546557</v>
       </c>
       <c r="F22">
-        <v>83.59973791238009</v>
+        <v>66.45810709889875</v>
       </c>
       <c r="G22">
-        <v>2.03900066506873</v>
+        <v>3.749031299386744</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.505710000632515</v>
+        <v>10.92011306807164</v>
       </c>
       <c r="K22">
-        <v>24.73304772078691</v>
+        <v>20.29027139703282</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.097010553428676</v>
+        <v>8.267304216132143</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.891984476919684</v>
+        <v>4.201665844589459</v>
       </c>
       <c r="E23">
-        <v>7.771069660771274</v>
+        <v>11.18195726818687</v>
       </c>
       <c r="F23">
-        <v>82.08449234261759</v>
+        <v>66.04962008670485</v>
       </c>
       <c r="G23">
-        <v>2.046233852558793</v>
+        <v>3.750873837470641</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.406650699143183</v>
+        <v>10.91348178458026</v>
       </c>
       <c r="K23">
-        <v>24.16170074792988</v>
+        <v>20.223701916201</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.382353679802836</v>
+        <v>8.129568588782405</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.567225454649357</v>
+        <v>4.226486103295788</v>
       </c>
       <c r="E24">
-        <v>7.353364264448896</v>
+        <v>11.21205742260827</v>
       </c>
       <c r="F24">
-        <v>76.3370319204349</v>
+        <v>64.49600741653711</v>
       </c>
       <c r="G24">
-        <v>2.073228670035596</v>
+        <v>3.758099383970587</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.04343899306259</v>
+        <v>10.89159353769</v>
       </c>
       <c r="K24">
-        <v>21.97257067607596</v>
+        <v>19.98470239482032</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.718118400255141</v>
+        <v>7.985467985859318</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.218042914752587</v>
+        <v>4.260077457585401</v>
       </c>
       <c r="E25">
-        <v>6.935709734689685</v>
+        <v>11.25700996423592</v>
       </c>
       <c r="F25">
-        <v>70.07590796267203</v>
+        <v>62.81282702954155</v>
       </c>
       <c r="G25">
-        <v>2.101968433418059</v>
+        <v>3.766427331257961</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.673310936508382</v>
+        <v>10.87489047687649</v>
       </c>
       <c r="K25">
-        <v>19.53229663145331</v>
+        <v>19.75608625635559</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_126/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.883905403082101</v>
+        <v>7.210764264157635</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.290511741693083</v>
+        <v>3.958244140824163</v>
       </c>
       <c r="E2">
-        <v>11.3007674341967</v>
+        <v>6.653554060573613</v>
       </c>
       <c r="F2">
-        <v>61.57371226796182</v>
+        <v>65.38598425162513</v>
       </c>
       <c r="G2">
-        <v>3.773025587845178</v>
+        <v>2.123186037860216</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.86853030175425</v>
+        <v>7.416588466925241</v>
       </c>
       <c r="K2">
-        <v>19.6138081745967</v>
+        <v>17.64770815982413</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.81824631013845</v>
+        <v>6.856569522098551</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.31461079268039</v>
+        <v>3.779130268801534</v>
       </c>
       <c r="E3">
-        <v>11.33702710797916</v>
+        <v>6.477247059725267</v>
       </c>
       <c r="F3">
-        <v>60.73746549001615</v>
+        <v>62.15253202427225</v>
       </c>
       <c r="G3">
-        <v>3.777791817778156</v>
+        <v>2.1377519076819</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.86791825438286</v>
+        <v>7.251500466258181</v>
       </c>
       <c r="K3">
-        <v>19.53402080559271</v>
+        <v>16.3080868776998</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.779604542265804</v>
+        <v>6.634535892246611</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.331093360647954</v>
+        <v>3.667303713694957</v>
       </c>
       <c r="E4">
-        <v>11.36253262279055</v>
+        <v>6.376142420673029</v>
       </c>
       <c r="F4">
-        <v>60.22688459967065</v>
+        <v>60.14045150455259</v>
       </c>
       <c r="G4">
-        <v>3.780864749783362</v>
+        <v>2.146829090376116</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.86936348003161</v>
+        <v>7.154290482431773</v>
       </c>
       <c r="K4">
-        <v>19.49333548509704</v>
+        <v>15.49609595638206</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.764294445631796</v>
+        <v>6.54301586025742</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.338229900269322</v>
+        <v>3.621226188945864</v>
       </c>
       <c r="E5">
-        <v>11.37373909617119</v>
+        <v>6.336713981563921</v>
       </c>
       <c r="F5">
-        <v>60.0197166275703</v>
+        <v>59.31408042550137</v>
       </c>
       <c r="G5">
-        <v>3.782153984641724</v>
+        <v>2.150567202907871</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.87040983114154</v>
+        <v>7.115693443003599</v>
       </c>
       <c r="K5">
-        <v>19.47885614607904</v>
+        <v>15.2283134787532</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.761779045200607</v>
+        <v>6.527759765633009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.339440149526292</v>
+        <v>3.613543324549122</v>
       </c>
       <c r="E6">
-        <v>11.37564893779535</v>
+        <v>6.330273268153692</v>
       </c>
       <c r="F6">
-        <v>59.98537581643444</v>
+        <v>59.17648576398384</v>
       </c>
       <c r="G6">
-        <v>3.782370300043767</v>
+        <v>2.151190423763886</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.8706111854631</v>
+        <v>7.10934510145524</v>
       </c>
       <c r="K6">
-        <v>19.47657899433737</v>
+        <v>15.18375790544935</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.779396276065405</v>
+        <v>6.633305674028161</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.33118791234387</v>
+        <v>3.666684400270213</v>
       </c>
       <c r="E7">
-        <v>11.36268046963567</v>
+        <v>6.375603530004931</v>
       </c>
       <c r="F7">
-        <v>60.22408679605046</v>
+        <v>60.12933229759926</v>
       </c>
       <c r="G7">
-        <v>3.780881986864636</v>
+        <v>2.146879338781593</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.86937574022527</v>
+        <v>7.153765866308183</v>
       </c>
       <c r="K7">
-        <v>19.49313169450067</v>
+        <v>15.49249076786663</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.860928722762525</v>
+        <v>7.089640790065613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.298468763338328</v>
+        <v>3.896841763488299</v>
       </c>
       <c r="E8">
-        <v>11.31259547917858</v>
+        <v>6.591263753215723</v>
       </c>
       <c r="F8">
-        <v>61.2848821413396</v>
+        <v>64.27674954197839</v>
       </c>
       <c r="G8">
-        <v>3.774638688180543</v>
+        <v>2.128184085772427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.86794105715882</v>
+        <v>7.358785566348802</v>
       </c>
       <c r="K8">
-        <v>19.5845822192784</v>
+        <v>17.19244897507645</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.033349723319196</v>
+        <v>7.944798836741358</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.247865558941909</v>
+        <v>4.335873248443512</v>
       </c>
       <c r="E9">
-        <v>11.24020630400417</v>
+        <v>7.072304512200523</v>
       </c>
       <c r="F9">
-        <v>63.38022299410445</v>
+        <v>72.19613662130322</v>
       </c>
       <c r="G9">
-        <v>3.763550069247289</v>
+        <v>2.09230122602502</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.87959407218351</v>
+        <v>7.795379662281104</v>
       </c>
       <c r="K9">
-        <v>19.82910775699191</v>
+        <v>20.36678303118354</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.166634543117645</v>
+        <v>8.575226479466878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.219205093494989</v>
+        <v>4.655078466048812</v>
       </c>
       <c r="E10">
-        <v>11.20290167530365</v>
+        <v>7.463966515649894</v>
       </c>
       <c r="F10">
-        <v>64.91857385724946</v>
+        <v>77.90006977482457</v>
       </c>
       <c r="G10">
-        <v>3.756096504948684</v>
+        <v>2.065952364081445</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.89699120380125</v>
+        <v>8.140151952712708</v>
       </c>
       <c r="K10">
-        <v>20.04732570314118</v>
+        <v>22.57186152575284</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.228473830207413</v>
+        <v>8.899060778568819</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.208070011951997</v>
+        <v>4.800781745849036</v>
       </c>
       <c r="E11">
-        <v>11.1894045901987</v>
+        <v>7.65142980794672</v>
       </c>
       <c r="F11">
-        <v>65.61600955841691</v>
+        <v>80.47914182652585</v>
       </c>
       <c r="G11">
-        <v>3.752853949026548</v>
+        <v>2.053841976962973</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.90682427161411</v>
+        <v>8.30314999274928</v>
       </c>
       <c r="K11">
-        <v>20.1546535408797</v>
+        <v>23.5540156350596</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.252044638229208</v>
+        <v>9.019675612386118</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.204131444670097</v>
+        <v>4.85615600411032</v>
       </c>
       <c r="E12">
-        <v>11.18479480865802</v>
+        <v>7.723872791191224</v>
       </c>
       <c r="F12">
-        <v>65.87959231030732</v>
+        <v>81.45469906592933</v>
       </c>
       <c r="G12">
-        <v>3.75164719877548</v>
+        <v>2.04922522341777</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.91082337974284</v>
+        <v>8.365865430078273</v>
       </c>
       <c r="K12">
-        <v>20.19642345629138</v>
+        <v>23.92360628802554</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.246961730784145</v>
+        <v>8.993787073209727</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.204967249105065</v>
+        <v>4.844218947748911</v>
       </c>
       <c r="E13">
-        <v>11.185765285766</v>
+        <v>7.70820389777889</v>
       </c>
       <c r="F13">
-        <v>65.82285104692809</v>
+        <v>81.24462052501001</v>
       </c>
       <c r="G13">
-        <v>3.751906156621228</v>
+        <v>2.050221127743093</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.90994985416152</v>
+        <v>8.352312431853704</v>
       </c>
       <c r="K13">
-        <v>20.18737795867806</v>
+        <v>23.84409960341062</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.230410051156692</v>
+        <v>8.909023644428462</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.207740385886302</v>
+        <v>4.805332585562611</v>
       </c>
       <c r="E14">
-        <v>11.18901528447867</v>
+        <v>7.657359765651978</v>
       </c>
       <c r="F14">
-        <v>65.63770612995395</v>
+        <v>80.55941505401877</v>
       </c>
       <c r="G14">
-        <v>3.752754246305697</v>
+        <v>2.053462854572643</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.90714776146949</v>
+        <v>8.308289044541226</v>
       </c>
       <c r="K14">
-        <v>20.15806757751207</v>
+        <v>23.58446437669803</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.220291078485385</v>
+        <v>8.85684415344409</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.20947535324092</v>
+        <v>4.78154383548691</v>
       </c>
       <c r="E15">
-        <v>11.1910713349164</v>
+        <v>7.626409877097615</v>
       </c>
       <c r="F15">
-        <v>65.52422638959078</v>
+        <v>80.13960759861158</v>
       </c>
       <c r="G15">
-        <v>3.753276473341274</v>
+        <v>2.055444066123085</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.90546726661317</v>
+        <v>8.281456226780021</v>
       </c>
       <c r="K15">
-        <v>20.1402599293062</v>
+        <v>23.42514946197904</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.162615788557558</v>
+        <v>8.553776153655356</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.219971464867269</v>
+        <v>4.645576749467806</v>
       </c>
       <c r="E16">
-        <v>11.20385379018622</v>
+        <v>7.451911631742185</v>
       </c>
       <c r="F16">
-        <v>64.87293161701598</v>
+        <v>77.73129744331129</v>
       </c>
       <c r="G16">
-        <v>3.756311380030065</v>
+        <v>2.066740254870596</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.8963871741494</v>
+        <v>8.129632003045424</v>
       </c>
       <c r="K16">
-        <v>20.04047110041065</v>
+        <v>22.50730927821432</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.127528915146911</v>
+        <v>8.373290582492384</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.22690098746333</v>
+        <v>4.562375373880866</v>
       </c>
       <c r="E17">
-        <v>11.21258630938217</v>
+        <v>7.347315829758651</v>
       </c>
       <c r="F17">
-        <v>64.47264713244924</v>
+        <v>76.25057808662196</v>
       </c>
       <c r="G17">
-        <v>3.758211015417078</v>
+        <v>2.073629817205493</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.89130810343775</v>
+        <v>8.038137063601505</v>
       </c>
       <c r="K17">
-        <v>19.98129637183966</v>
+        <v>21.93932416876299</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.107462725649714</v>
+        <v>8.2836763280825</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.231065493813367</v>
+        <v>4.514557652355598</v>
       </c>
       <c r="E18">
-        <v>11.21793581700892</v>
+        <v>7.288020899108684</v>
       </c>
       <c r="F18">
-        <v>64.24220177107503</v>
+        <v>75.39734039414205</v>
       </c>
       <c r="G18">
-        <v>3.75931758578063</v>
+        <v>2.077581727614827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.88856742067127</v>
+        <v>7.986083529772743</v>
       </c>
       <c r="K18">
-        <v>19.94802130220065</v>
+        <v>21.61061465167623</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.100688991692204</v>
+        <v>8.253234343792457</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.23250610219804</v>
+        <v>4.498370348449437</v>
       </c>
       <c r="E19">
-        <v>11.21980313563648</v>
+        <v>7.268090349291937</v>
       </c>
       <c r="F19">
-        <v>64.16414603667955</v>
+        <v>75.10815004786484</v>
       </c>
       <c r="G19">
-        <v>3.759694652420174</v>
+        <v>2.078918280968279</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.8876705114609</v>
+        <v>7.968554550329504</v>
       </c>
       <c r="K19">
-        <v>19.93688650367047</v>
+        <v>21.49895371291587</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.131252230440561</v>
+        <v>8.389828550657867</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.226144787650405</v>
+        <v>4.5712275748698</v>
       </c>
       <c r="E20">
-        <v>11.21162288184038</v>
+        <v>7.358359885948984</v>
       </c>
       <c r="F20">
-        <v>64.51528139429853</v>
+        <v>76.40835810025344</v>
       </c>
       <c r="G20">
-        <v>3.758007353357313</v>
+        <v>2.072897613816258</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.89183008353232</v>
+        <v>8.04781698553167</v>
       </c>
       <c r="K20">
-        <v>19.98751711778981</v>
+        <v>21.99999163945482</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.235267671705097</v>
+        <v>8.933974608280367</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.206918267088202</v>
+        <v>4.816747875579563</v>
       </c>
       <c r="E21">
-        <v>11.18804706280731</v>
+        <v>7.672253304147317</v>
       </c>
       <c r="F21">
-        <v>65.69210323654036</v>
+        <v>80.76069454793348</v>
       </c>
       <c r="G21">
-        <v>3.752504569495654</v>
+        <v>2.052511632816298</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.9079633301936</v>
+        <v>8.321191878067067</v>
       </c>
       <c r="K21">
-        <v>20.16664642126227</v>
+        <v>23.66078264792602</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.304133806380856</v>
+        <v>9.281403073135708</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.19597532411634</v>
+        <v>4.978453744349383</v>
       </c>
       <c r="E22">
-        <v>11.17556142546557</v>
+        <v>7.899019689334738</v>
       </c>
       <c r="F22">
-        <v>66.45810709889875</v>
+        <v>83.59973791237979</v>
       </c>
       <c r="G22">
-        <v>3.749031299386744</v>
+        <v>2.039000665068738</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.92011306807164</v>
+        <v>8.50571000063254</v>
       </c>
       <c r="K22">
-        <v>20.29027139703282</v>
+        <v>24.73304772078683</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.267304216132143</v>
+        <v>9.097010553428669</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.201665844589459</v>
+        <v>4.891984476919726</v>
       </c>
       <c r="E23">
-        <v>11.18195726818687</v>
+        <v>7.77106966077126</v>
       </c>
       <c r="F23">
-        <v>66.04962008670485</v>
+        <v>82.08449234261801</v>
       </c>
       <c r="G23">
-        <v>3.750873837470641</v>
+        <v>2.046233852558414</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.91348178458026</v>
+        <v>8.406650699143176</v>
       </c>
       <c r="K23">
-        <v>20.223701916201</v>
+        <v>24.16170074792997</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.129568588782405</v>
+        <v>8.382353679802847</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.226486103295788</v>
+        <v>4.567225454649384</v>
       </c>
       <c r="E24">
-        <v>11.21205742260827</v>
+        <v>7.353364264448888</v>
       </c>
       <c r="F24">
-        <v>64.49600741653711</v>
+        <v>76.337031920435</v>
       </c>
       <c r="G24">
-        <v>3.758099383970587</v>
+        <v>2.073228670035445</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.89159353769</v>
+        <v>8.043438993062605</v>
       </c>
       <c r="K24">
-        <v>19.98470239482032</v>
+        <v>21.97257067607595</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.985467985859318</v>
+        <v>7.718118400255153</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.260077457585401</v>
+        <v>4.218042914752472</v>
       </c>
       <c r="E25">
-        <v>11.25700996423592</v>
+        <v>6.93570973468972</v>
       </c>
       <c r="F25">
-        <v>62.81282702954155</v>
+        <v>70.07590796267212</v>
       </c>
       <c r="G25">
-        <v>3.766427331257961</v>
+        <v>2.101968433417651</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.87489047687649</v>
+        <v>7.67331093650838</v>
       </c>
       <c r="K25">
-        <v>19.75608625635559</v>
+        <v>19.53229663145327</v>
       </c>
       <c r="L25">
         <v>0</v>
